--- a/TP3Résultats-2_EquipeXX.xlsx
+++ b/TP3Résultats-2_EquipeXX.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delat\Documents\Mes cours\ACT-1006\TP\2018\TP3 - Optimisation portefeuille\InfoBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laurianne\grf-tp3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41204C79-0CC0-4B43-A22C-C0D55F8AA6E8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Résultats" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -164,12 +165,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,18 +186,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -201,10 +203,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,14 +220,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -501,24 +504,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:BM68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.90625" customWidth="1"/>
-    <col min="2" max="4" width="11.1796875" style="1" customWidth="1"/>
-    <col min="5" max="34" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="34" width="10.85546875" customWidth="1"/>
     <col min="35" max="65" width="0" hidden="1" customWidth="1"/>
-    <col min="66" max="16384" width="10.90625" hidden="1"/>
+    <col min="66" max="16384" width="10.85546875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E1" s="5" t="s">
         <v>34</v>
       </c>
@@ -552,7 +555,7 @@
       <c r="AG1" s="5"/>
       <c r="AH1" s="5"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -656,7 +659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -748,7 +751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -783,77 +786,179 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
+        <v>0.14524761621737606</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.21142616986851084</v>
+      </c>
+      <c r="E5" s="6">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>7.6799999999999993E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="L5" s="6">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="M5" s="6">
+        <v>3.95E-2</v>
+      </c>
+      <c r="N5" s="6">
+        <v>3.78E-2</v>
+      </c>
+      <c r="O5" s="6">
+        <v>3.56E-2</v>
+      </c>
+      <c r="P5" s="6">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="R5" s="6">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="S5" s="6">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="T5" s="6">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="U5" s="6">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="V5" s="6">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="W5" s="6">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="X5" s="6">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>1.41E-2</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>1.29E-2</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>1.18E-2</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>1.15E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
+        <v>0.11767231374265245</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.18862404606489414</v>
+      </c>
+      <c r="E6" s="6">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>9.9299999999999999E-2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>8.72E-2</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="N6" s="6">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="O6" s="6">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="P6" s="6">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="U6" s="6">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -885,7 +990,7 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -920,80 +1025,170 @@
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="1">
+        <v>0.12928039403883723</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.24945585423188027</v>
+      </c>
+      <c r="E9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="F9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="G9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="H9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="I9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="J9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="K9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="L9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="M9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="N9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="O9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="P9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="Q9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="R9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="S9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="T9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="U9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="V9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="W9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="X9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="Y9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="Z9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="AA9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="AB9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="AC9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="AD9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="AE9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="AF9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="AG9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="AH9">
+        <v>3.3329999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>0.11756372255829228</v>
+      </c>
+      <c r="C10">
+        <v>0.20208826234876756</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10" s="7">
+        <f>1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" ref="F10:H10" si="0">1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J10">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="M10">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="N10">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="O10">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="P10">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="T10">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="U10">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="X10">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="Y10">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="AA10">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="AH10">
+        <f>1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1025,7 +1220,7 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1060,77 +1255,209 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B13" s="1">
+        <v>0.16165028674770909</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.21839371899162233</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4.5444042209042594E-3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6.2235230686282061E-2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5.391666024801664E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2.4724639913733346E-2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>7.2941538935531083E-2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>4.4673804205499499E-3</v>
+      </c>
+      <c r="K13" s="2">
+        <v>7.4096895940845731E-2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>8.7807132403912823E-3</v>
+      </c>
+      <c r="M13" s="2">
+        <v>3.9051066779634908E-2</v>
+      </c>
+      <c r="N13" s="2">
+        <v>7.4019872140491411E-2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>2.5417854116922128E-3</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1.4480474466610183E-2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>2.079642609566356E-2</v>
+      </c>
+      <c r="R13" s="2">
+        <v>4.5752137410459831E-2</v>
+      </c>
+      <c r="S13" s="2">
+        <v>4.7754756219671882E-3</v>
+      </c>
+      <c r="T13" s="2">
+        <v>2.0719402295309251E-2</v>
+      </c>
+      <c r="U13" s="2">
+        <v>2.0026188092120464E-2</v>
+      </c>
+      <c r="V13" s="2">
+        <v>4.4596780405145191E-2</v>
+      </c>
+      <c r="W13" s="2">
+        <v>1.6945236077948088E-2</v>
+      </c>
+      <c r="X13" s="2">
+        <v>5.2376184240930448E-2</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>5.8384040668566589E-2</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>1.0552260648540399E-2</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>1.2323808056689518E-3</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>5.7151659862897643E-2</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>5.8461064468920902E-2</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>4.8679041823923595E-2</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>2.1566664099206656E-2</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>2.7728568127551416E-3</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>3.8049757375028886E-2</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>4.1361780790264195E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
+        <v>0.19701337631955124</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.20783319672880604</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3.9503904455672943E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>7.5179911192772925E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.14469453376205788</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.13933547695605572</v>
+      </c>
+      <c r="L14" s="2">
+        <v>4.7925279436533456E-2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.13872301332108405</v>
+      </c>
+      <c r="N14" s="2">
+        <v>6.0021436227224008E-2</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>4.4862961261675084E-2</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>9.9525340682896958E-3</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>3.6135354463328738E-2</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>3.5216659010871227E-3</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>6.6452304394426578E-2</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>3.3532384014699122E-2</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>6.5227377124483232E-2</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>9.49318634206094E-2</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1162,7 +1489,7 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1197,77 +1524,209 @@
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B17" s="1">
+        <v>0.14663113502080255</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.18910619195747849</v>
+      </c>
+      <c r="E17">
+        <v>5.302417542913633E-2</v>
+      </c>
+      <c r="F17">
+        <v>7.7648961984362358E-2</v>
+      </c>
+      <c r="G17">
+        <v>5.6259548845151434E-2</v>
+      </c>
+      <c r="H17">
+        <v>2.5433629909229802E-2</v>
+      </c>
+      <c r="I17">
+        <v>1.7704682304304841E-2</v>
+      </c>
+      <c r="J17">
+        <v>8.7714568167520435E-2</v>
+      </c>
+      <c r="K17">
+        <v>7.6840118630358584E-2</v>
+      </c>
+      <c r="L17">
+        <v>2.165902759054552E-2</v>
+      </c>
+      <c r="M17">
+        <v>9.4365057967107039E-3</v>
+      </c>
+      <c r="N17">
+        <v>8.9422126359306187E-2</v>
+      </c>
+      <c r="O17">
+        <v>2.3366585782331264E-3</v>
+      </c>
+      <c r="P17">
+        <v>2.696144513345915E-4</v>
+      </c>
+      <c r="Q17">
+        <v>1.5547766693628113E-2</v>
+      </c>
+      <c r="R17">
+        <v>9.2567628291543094E-3</v>
+      </c>
+      <c r="S17">
+        <v>1.680596746652287E-2</v>
+      </c>
+      <c r="T17">
+        <v>1.6626224498966478E-2</v>
+      </c>
+      <c r="U17">
+        <v>1.7974296755639435E-3</v>
+      </c>
+      <c r="V17">
+        <v>2.7500674036128336E-2</v>
+      </c>
+      <c r="W17">
+        <v>1.6266738563853689E-2</v>
+      </c>
+      <c r="X17">
+        <v>1.9591983463646986E-2</v>
+      </c>
+      <c r="Y17">
+        <v>8.4658937719061744E-2</v>
+      </c>
+      <c r="Z17">
+        <v>4.3138312213534646E-2</v>
+      </c>
+      <c r="AA17">
+        <v>8.9871483778197184E-5</v>
+      </c>
+      <c r="AB17">
+        <v>1.4738923339624335E-2</v>
+      </c>
+      <c r="AC17">
+        <v>1.4109822953176955E-2</v>
+      </c>
+      <c r="AD17">
+        <v>2.1389413139210927E-2</v>
+      </c>
+      <c r="AE17">
+        <v>1.1952907342500225E-2</v>
+      </c>
+      <c r="AF17">
+        <v>8.0704592432821062E-2</v>
+      </c>
+      <c r="AG17">
+        <v>6.5246697222971148E-2</v>
+      </c>
+      <c r="AH17">
+        <v>2.2827356879662079E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B18" s="1">
+        <v>0.17085948983238539</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.13412762630828035</v>
+      </c>
+      <c r="E18">
+        <v>2.4150825802430664E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.10267996260517297</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>5.3755063882829544E-2</v>
+      </c>
+      <c r="J18">
+        <v>7.2140853848550957E-2</v>
+      </c>
+      <c r="K18">
+        <v>0.1380492365222811</v>
+      </c>
+      <c r="L18">
+        <v>0.14054222499220942</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>9.8628856341539423E-2</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>7.027111249610471E-2</v>
+      </c>
+      <c r="Q18">
+        <v>7.0115300716734191E-3</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>1.4334683702087878E-2</v>
+      </c>
+      <c r="U18">
+        <v>5.0794640074789663E-2</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>1.075101277656591E-2</v>
+      </c>
+      <c r="X18">
+        <v>0.13602368339046433</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>7.47896540978498E-3</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>7.3387348083515117E-2</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1299,7 +1758,7 @@
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1331,7 +1790,7 @@
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1363,7 +1822,7 @@
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1395,7 +1854,7 @@
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1427,7 +1886,7 @@
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1459,7 +1918,7 @@
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1491,7 +1950,7 @@
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1523,7 +1982,7 @@
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1555,7 +2014,7 @@
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1587,7 +2046,7 @@
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1619,7 +2078,7 @@
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1651,7 +2110,7 @@
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1683,7 +2142,7 @@
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1715,7 +2174,7 @@
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
     </row>
-    <row r="33" spans="5:49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1747,7 +2206,7 @@
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
     </row>
-    <row r="34" spans="5:49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1780,7 +2239,7 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="5:49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1814,7 +2273,7 @@
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
     </row>
-    <row r="36" spans="5:49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1849,7 +2308,7 @@
       <c r="AJ36" s="2"/>
       <c r="AK36" s="2"/>
     </row>
-    <row r="37" spans="5:49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1885,7 +2344,7 @@
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
     </row>
-    <row r="38" spans="5:49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -1922,7 +2381,7 @@
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
     </row>
-    <row r="39" spans="5:49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -1960,7 +2419,7 @@
       <c r="AM39" s="2"/>
       <c r="AN39" s="2"/>
     </row>
-    <row r="40" spans="5:49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -1999,7 +2458,7 @@
       <c r="AN40" s="2"/>
       <c r="AO40" s="2"/>
     </row>
-    <row r="41" spans="5:49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -2039,7 +2498,7 @@
       <c r="AO41" s="2"/>
       <c r="AP41" s="2"/>
     </row>
-    <row r="42" spans="5:49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2080,7 +2539,7 @@
       <c r="AP42" s="2"/>
       <c r="AQ42" s="2"/>
     </row>
-    <row r="43" spans="5:49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2122,7 +2581,7 @@
       <c r="AQ43" s="2"/>
       <c r="AR43" s="2"/>
     </row>
-    <row r="44" spans="5:49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2165,7 +2624,7 @@
       <c r="AR44" s="2"/>
       <c r="AS44" s="2"/>
     </row>
-    <row r="45" spans="5:49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2209,7 +2668,7 @@
       <c r="AS45" s="2"/>
       <c r="AT45" s="2"/>
     </row>
-    <row r="46" spans="5:49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2254,7 +2713,7 @@
       <c r="AT46" s="2"/>
       <c r="AU46" s="2"/>
     </row>
-    <row r="47" spans="5:49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2300,7 +2759,7 @@
       <c r="AU47" s="2"/>
       <c r="AV47" s="2"/>
     </row>
-    <row r="48" spans="5:49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2347,7 +2806,7 @@
       <c r="AV48" s="2"/>
       <c r="AW48" s="2"/>
     </row>
-    <row r="49" spans="5:64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2395,7 +2854,7 @@
       <c r="AW49" s="2"/>
       <c r="AX49" s="2"/>
     </row>
-    <row r="50" spans="5:64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -2444,7 +2903,7 @@
       <c r="AX50" s="2"/>
       <c r="AY50" s="2"/>
     </row>
-    <row r="51" spans="5:64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2494,7 +2953,7 @@
       <c r="AY51" s="2"/>
       <c r="AZ51" s="2"/>
     </row>
-    <row r="52" spans="5:64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2545,7 +3004,7 @@
       <c r="AZ52" s="2"/>
       <c r="BA52" s="2"/>
     </row>
-    <row r="53" spans="5:64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2597,7 +3056,7 @@
       <c r="BA53" s="2"/>
       <c r="BB53" s="2"/>
     </row>
-    <row r="54" spans="5:64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -2650,7 +3109,7 @@
       <c r="BB54" s="2"/>
       <c r="BC54" s="2"/>
     </row>
-    <row r="55" spans="5:64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -2704,7 +3163,7 @@
       <c r="BC55" s="2"/>
       <c r="BD55" s="2"/>
     </row>
-    <row r="56" spans="5:64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -2759,7 +3218,7 @@
       <c r="BD56" s="2"/>
       <c r="BE56" s="2"/>
     </row>
-    <row r="57" spans="5:64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -2815,7 +3274,7 @@
       <c r="BE57" s="2"/>
       <c r="BF57" s="2"/>
     </row>
-    <row r="58" spans="5:64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -2872,7 +3331,7 @@
       <c r="BF58" s="2"/>
       <c r="BG58" s="2"/>
     </row>
-    <row r="59" spans="5:64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -2930,7 +3389,7 @@
       <c r="BG59" s="2"/>
       <c r="BH59" s="2"/>
     </row>
-    <row r="60" spans="5:64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -2989,7 +3448,7 @@
       <c r="BH60" s="2"/>
       <c r="BI60" s="2"/>
     </row>
-    <row r="61" spans="5:64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -3049,7 +3508,7 @@
       <c r="BI61" s="2"/>
       <c r="BJ61" s="2"/>
     </row>
-    <row r="62" spans="5:64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -3110,7 +3569,7 @@
       <c r="BJ62" s="2"/>
       <c r="BK62" s="2"/>
     </row>
-    <row r="63" spans="5:64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="5:64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -3172,11 +3631,11 @@
       <c r="BK63" s="2"/>
       <c r="BL63" s="2"/>
     </row>
-    <row r="64" spans="5:64" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="65" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="66" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="67" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="68" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="5:64" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:AH1"/>
